--- a/fhir/core/ValueSet-dk-core-RelatedPersonRelationshipTypes.xlsx
+++ b/fhir/core/ValueSet-dk-core-RelatedPersonRelationshipTypes.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from RoleCode" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from DK Related Perso" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>POWATT</t>
+  </si>
+  <si>
+    <t>ECON</t>
   </si>
   <si>
     <t/>
@@ -436,7 +439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -566,16 +569,22 @@
       <c r="A20" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>46</v>
-      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>47</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>48</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -597,28 +606,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/core/ValueSet-dk-core-RelatedPersonRelationshipTypes.xlsx
+++ b/fhir/core/ValueSet-dk-core-RelatedPersonRelationshipTypes.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-RelatedPersonRelationshipTypes.xlsx
+++ b/fhir/core/ValueSet-dk-core-RelatedPersonRelationshipTypes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-RelatedPersonRelationshipTypes.xlsx
+++ b/fhir/core/ValueSet-dk-core-RelatedPersonRelationshipTypes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
